--- a/va_facility_data_2025-02-20/Akron VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Akron%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Akron VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Akron%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R519d6efcb07042c3861e744246d5e9c9"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R91f95c864cee48a89ed18d4b168f340a"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rd3a7aa36ba044d24ab62baf6d8a6acf2"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="Rbd83faedabbf4199860d1f1911e490f1"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R5b117e5dabef432899a1329f3b0b4eda"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R508b9fb3a8144d7f90e5c8e7cc87e9e3"/>
   </x:sheets>
 </x:workbook>
 </file>
